--- a/src/analysis_examples/circadb/results_lomb/cosinor_10451198_vegfa_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10451198_vegfa_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.31822998387668316, 0.42643986991480515]</t>
+          <t>[0.31736324201053956, 0.42730661178094875]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.653655073459049e-12</v>
+        <v>3.595124198341182e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.653655073459049e-12</v>
+        <v>3.595124198341182e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-0.754736973835386</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.43356765103308115, 0.48914120895001834]</t>
+          <t>[0.43359362825952097, 0.4891152317235785]</t>
         </is>
       </c>
       <c r="U2" t="n">
